--- a/data/trans_camb/P37-Estudios-trans_camb.xlsx
+++ b/data/trans_camb/P37-Estudios-trans_camb.xlsx
@@ -567,7 +567,7 @@
       </c>
       <c r="D2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="E2" s="3" t="inlineStr">
@@ -582,7 +582,7 @@
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="H2" s="3" t="inlineStr">
@@ -597,7 +597,7 @@
       </c>
       <c r="J2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="K2" s="3" t="inlineStr">

--- a/data/trans_camb/P37-Estudios-trans_camb.xlsx
+++ b/data/trans_camb/P37-Estudios-trans_camb.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal cambio" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Cambio" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -632,47 +632,47 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>8,48</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>7,32</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>28,82</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>3,88</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>5,82</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>35,42</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>5,88</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>6,49</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>32,96</t>
         </is>
       </c>
     </row>
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>4,25; 12,15</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>3,23; 11,5</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>24,05; 33,66</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,19; 7,37</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,5; 9,8</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>31,44; 39,08</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>3,18; 8,5</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>3,45; 9,32</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>29,85; 36,17</t>
         </is>
       </c>
     </row>
@@ -738,47 +738,47 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>31,88%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>27,52%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>108,34%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>13,08%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>19,59%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>119,26%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>20,74%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>22,91%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>116,31%</t>
         </is>
       </c>
     </row>
@@ -791,47 +791,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>15,15; 49,65</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>11,47; 46,21</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>83,72; 134,75</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,53; 25,96</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>4,74; 34,71</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>99,27; 140,85</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>10,82; 31,42</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>11,83; 34,47</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>100,27; 133,99</t>
         </is>
       </c>
     </row>
@@ -848,47 +848,47 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>3,77</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>3,5</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>18,03</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,64</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>3,88</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>24,34</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>3,24</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>3,69</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>21,23</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,83; 5,58</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,38; 5,22</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>15,33; 20,31</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,81; 4,54</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,84; 5,8</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>20,16; 38,94</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,87; 4,64</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>2,5; 5,02</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>18,81; 28,71</t>
         </is>
       </c>
     </row>
@@ -954,47 +954,47 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>54,42%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>50,56%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>260,2%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>41,89%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>61,58%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>386,15%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>48,95%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>55,61%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>320,39%</t>
         </is>
       </c>
     </row>
@@ -1007,47 +1007,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>22,3; 90,44</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>17,07; 86,46</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>190,91; 338,34</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>10,7; 84,81</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>24,85; 109,02</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>284,36; 651,38</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>24,81; 76,47</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>34,93; 84,99</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>258,57; 428,17</t>
         </is>
       </c>
     </row>
@@ -1064,47 +1064,47 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,41</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,63</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>22,55</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,28</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,8</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>21,6</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,4</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,02</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>21,96</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,61; 4,01</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,53; 3,36</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>17,75; 26,87</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,7; 3,79</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,24; 4,75</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>17,55; 25,63</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,63; 2,35</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,95; 2,82</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>18,71; 25,07</t>
         </is>
       </c>
     </row>
@@ -1170,47 +1170,47 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-3,63%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-5,51%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>198,03%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-2,95%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>8,54%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>229,63%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-3,78%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,15%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>209,78%</t>
         </is>
       </c>
     </row>
@@ -1223,47 +1223,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-34,79; 42,16</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-34,31; 33,85</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>128,13; 296,51</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-40,46; 51,41</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-27,62; 66,19</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>141,09; 354,0</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-30,18; 25,95</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-25,55; 29,96</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>156,2; 289,15</t>
         </is>
       </c>
     </row>
@@ -1280,47 +1280,47 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>3,81</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,86</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>17,76</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,39</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,47</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>22,43</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>3,09</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,67</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>20,27</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>2,11; 5,69</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,1; 3,76</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>15,51; 19,92</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,52; 4,37</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,46; 3,4</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>19,71; 29,07</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,82; 4,24</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,23; 2,96</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>18,65; 23,73</t>
         </is>
       </c>
     </row>
@@ -1386,47 +1386,47 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>27,49%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>13,37%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>127,98%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>15,1%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>9,28%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>141,47%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>20,79%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>11,2%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>136,24%</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1439,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>14,3; 43,13</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,72; 28,33</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>105,02; 152,69</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>2,83; 29,26</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,86; 22,39</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>117,32; 185,8</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>11,79; 30,06</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,45; 20,52</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>119,53; 161,27</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/P37-Estudios-trans_camb.xlsx
+++ b/data/trans_camb/P37-Estudios-trans_camb.xlsx
@@ -642,7 +642,7 @@
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>28,82</t>
+          <t>28,0</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
@@ -657,7 +657,7 @@
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>35,42</t>
+          <t>35,14</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
@@ -672,7 +672,7 @@
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>32,96</t>
+          <t>32,35</t>
         </is>
       </c>
     </row>
@@ -695,7 +695,7 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>24,05; 33,66</t>
+          <t>23,17; 32,98</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
@@ -710,7 +710,7 @@
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>31,44; 39,08</t>
+          <t>31,3; 38,82</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
@@ -725,7 +725,7 @@
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>29,85; 36,17</t>
+          <t>29,16; 35,63</t>
         </is>
       </c>
     </row>
@@ -748,7 +748,7 @@
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>108,34%</t>
+          <t>105,26%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
@@ -763,7 +763,7 @@
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>119,26%</t>
+          <t>118,33%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
@@ -778,7 +778,7 @@
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>116,31%</t>
+          <t>114,15%</t>
         </is>
       </c>
     </row>
@@ -801,7 +801,7 @@
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>83,72; 134,75</t>
+          <t>81,2; 131,19</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
@@ -816,7 +816,7 @@
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>99,27; 140,85</t>
+          <t>98,61; 139,97</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
@@ -831,7 +831,7 @@
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>100,27; 133,99</t>
+          <t>97,86; 131,45</t>
         </is>
       </c>
     </row>
@@ -858,7 +858,7 @@
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>18,03</t>
+          <t>15,08</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
@@ -873,7 +873,7 @@
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>24,34</t>
+          <t>26,45</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
@@ -888,7 +888,7 @@
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>21,23</t>
+          <t>20,69</t>
         </is>
       </c>
     </row>
@@ -911,7 +911,7 @@
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>15,33; 20,31</t>
+          <t>8,85; 18,49</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
@@ -926,7 +926,7 @@
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>20,16; 38,94</t>
+          <t>18,98; 49,08</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
@@ -941,7 +941,7 @@
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>18,81; 28,71</t>
+          <t>16,12; 31,7</t>
         </is>
       </c>
     </row>
@@ -964,7 +964,7 @@
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>260,2%</t>
+          <t>217,53%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
@@ -979,7 +979,7 @@
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>386,15%</t>
+          <t>419,57%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
@@ -994,7 +994,7 @@
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>320,39%</t>
+          <t>312,18%</t>
         </is>
       </c>
     </row>
@@ -1017,7 +1017,7 @@
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>190,91; 338,34</t>
+          <t>120,25; 294,74</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
@@ -1032,7 +1032,7 @@
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>284,36; 651,38</t>
+          <t>281,11; 859,27</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
@@ -1047,7 +1047,7 @@
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>258,57; 428,17</t>
+          <t>228,62; 488,44</t>
         </is>
       </c>
     </row>
@@ -1074,7 +1074,7 @@
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>22,55</t>
+          <t>21,94</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
@@ -1089,7 +1089,7 @@
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>21,6</t>
+          <t>21,5</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
@@ -1104,7 +1104,7 @@
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>21,96</t>
+          <t>21,64</t>
         </is>
       </c>
     </row>
@@ -1127,7 +1127,7 @@
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>17,75; 26,87</t>
+          <t>17,12; 26,61</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
@@ -1142,7 +1142,7 @@
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>17,55; 25,63</t>
+          <t>17,55; 25,51</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
@@ -1157,7 +1157,7 @@
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>18,71; 25,07</t>
+          <t>18,37; 24,76</t>
         </is>
       </c>
     </row>
@@ -1180,7 +1180,7 @@
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>198,03%</t>
+          <t>192,71%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
@@ -1195,7 +1195,7 @@
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>229,63%</t>
+          <t>228,54%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
@@ -1210,7 +1210,7 @@
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>209,78%</t>
+          <t>206,68%</t>
         </is>
       </c>
     </row>
@@ -1233,7 +1233,7 @@
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>128,13; 296,51</t>
+          <t>124,59; 291,16</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
@@ -1248,7 +1248,7 @@
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>141,09; 354,0</t>
+          <t>139,93; 352,45</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
@@ -1263,7 +1263,7 @@
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>156,2; 289,15</t>
+          <t>151,88; 282,18</t>
         </is>
       </c>
     </row>
@@ -1290,7 +1290,7 @@
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>17,76</t>
+          <t>15,11</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
@@ -1305,7 +1305,7 @@
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>22,43</t>
+          <t>23,18</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
@@ -1320,7 +1320,7 @@
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>20,27</t>
+          <t>19,27</t>
         </is>
       </c>
     </row>
@@ -1343,7 +1343,7 @@
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>15,51; 19,92</t>
+          <t>8,75; 18,13</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
@@ -1358,7 +1358,7 @@
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>19,71; 29,07</t>
+          <t>18,59; 34,08</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
@@ -1373,7 +1373,7 @@
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>18,65; 23,73</t>
+          <t>15,91; 25,34</t>
         </is>
       </c>
     </row>
@@ -1396,7 +1396,7 @@
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>127,98%</t>
+          <t>108,91%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
@@ -1411,7 +1411,7 @@
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>141,47%</t>
+          <t>146,26%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
@@ -1426,7 +1426,7 @@
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>136,24%</t>
+          <t>129,53%</t>
         </is>
       </c>
     </row>
@@ -1449,7 +1449,7 @@
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>105,02; 152,69</t>
+          <t>62,52; 136,82</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
@@ -1464,7 +1464,7 @@
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>117,32; 185,8</t>
+          <t>113,25; 222,98</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
@@ -1479,7 +1479,7 @@
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>119,53; 161,27</t>
+          <t>103,58; 172,12</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/P37-Estudios-trans_camb.xlsx
+++ b/data/trans_camb/P37-Estudios-trans_camb.xlsx
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>4,25; 12,15</t>
+          <t>4,44; 12,65</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>3,23; 11,5</t>
+          <t>3,04; 11,55</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>23,17; 32,98</t>
+          <t>23,6; 33,24</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>0,19; 7,37</t>
+          <t>-0,2; 7,46</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>1,5; 9,8</t>
+          <t>1,5; 9,82</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>31,3; 38,82</t>
+          <t>31,33; 38,78</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>3,18; 8,5</t>
+          <t>2,98; 8,6</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>3,45; 9,32</t>
+          <t>3,61; 9,53</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>29,16; 35,63</t>
+          <t>29,41; 35,25</t>
         </is>
       </c>
     </row>
@@ -791,47 +791,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>15,15; 49,65</t>
+          <t>15,72; 50,95</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>11,47; 46,21</t>
+          <t>11,06; 46,36</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>81,2; 131,19</t>
+          <t>82,61; 132,92</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>0,53; 25,96</t>
+          <t>-0,62; 26,86</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>4,74; 34,71</t>
+          <t>4,97; 35,08</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>98,61; 139,97</t>
+          <t>98,5; 140,48</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>10,82; 31,42</t>
+          <t>9,83; 31,76</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>11,83; 34,47</t>
+          <t>11,93; 35,23</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>97,86; 131,45</t>
+          <t>98,09; 131,71</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>1,83; 5,58</t>
+          <t>1,81; 5,53</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>1,38; 5,22</t>
+          <t>1,73; 5,35</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>8,85; 18,49</t>
+          <t>8,74; 18,61</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>0,81; 4,54</t>
+          <t>0,59; 4,59</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>1,84; 5,8</t>
+          <t>1,96; 5,96</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>18,98; 49,08</t>
+          <t>18,81; 44,35</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>1,87; 4,64</t>
+          <t>1,88; 4,58</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>2,5; 5,02</t>
+          <t>2,3; 5,07</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>16,12; 31,7</t>
+          <t>16,16; 31,54</t>
         </is>
       </c>
     </row>
@@ -1007,47 +1007,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>22,3; 90,44</t>
+          <t>22,57; 90,69</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>17,07; 86,46</t>
+          <t>22,19; 88,43</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>120,25; 294,74</t>
+          <t>120,77; 297,65</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>10,7; 84,81</t>
+          <t>8,39; 83,65</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>24,85; 109,02</t>
+          <t>27,11; 111,58</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>281,11; 859,27</t>
+          <t>279,49; 788,37</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>24,81; 76,47</t>
+          <t>25,84; 76,24</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>34,93; 84,99</t>
+          <t>31,44; 85,13</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>228,62; 488,44</t>
+          <t>233,69; 492,86</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-4,61; 4,01</t>
+          <t>-4,67; 3,93</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-4,53; 3,36</t>
+          <t>-4,59; 3,39</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>17,12; 26,61</t>
+          <t>17,16; 26,65</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-4,7; 3,79</t>
+          <t>-4,43; 3,75</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-3,24; 4,75</t>
+          <t>-3,66; 4,37</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>17,55; 25,51</t>
+          <t>17,33; 25,27</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-3,63; 2,35</t>
+          <t>-3,29; 2,63</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-2,95; 2,82</t>
+          <t>-2,83; 2,75</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>18,37; 24,76</t>
+          <t>18,48; 24,96</t>
         </is>
       </c>
     </row>
@@ -1223,47 +1223,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-34,79; 42,16</t>
+          <t>-34,76; 40,27</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-34,31; 33,85</t>
+          <t>-33,98; 36,29</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>124,59; 291,16</t>
+          <t>121,76; 283,56</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-40,46; 51,41</t>
+          <t>-38,94; 50,42</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-27,62; 66,19</t>
+          <t>-31,43; 60,55</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>139,93; 352,45</t>
+          <t>136,49; 342,4</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-30,18; 25,95</t>
+          <t>-28,38; 27,78</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-25,55; 29,96</t>
+          <t>-23,98; 30,3</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>151,88; 282,18</t>
+          <t>152,96; 277,67</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>2,11; 5,69</t>
+          <t>1,98; 5,58</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>0,1; 3,76</t>
+          <t>0,03; 3,59</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>8,75; 18,13</t>
+          <t>9,0; 18,14</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>0,52; 4,37</t>
+          <t>0,66; 4,32</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-0,46; 3,4</t>
+          <t>-0,35; 3,37</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>18,59; 34,08</t>
+          <t>18,83; 34,84</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>1,82; 4,24</t>
+          <t>1,8; 4,35</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>0,23; 2,96</t>
+          <t>0,36; 2,89</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>15,91; 25,34</t>
+          <t>15,62; 25,68</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1439,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>14,3; 43,13</t>
+          <t>13,27; 42,84</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>0,72; 28,33</t>
+          <t>0,49; 27,76</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>62,52; 136,82</t>
+          <t>66,03; 136,2</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>2,83; 29,26</t>
+          <t>4,03; 28,71</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-2,86; 22,39</t>
+          <t>-1,83; 22,21</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>113,25; 222,98</t>
+          <t>115,67; 222,43</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>11,79; 30,06</t>
+          <t>11,51; 30,56</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>1,45; 20,52</t>
+          <t>2,36; 20,21</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>103,58; 172,12</t>
+          <t>103,52; 173,77</t>
         </is>
       </c>
     </row>
